--- a/SPEKTRAL_ANALİZ/EXCELLER/sinop_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/sinop_tudes_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>0.5904389601139601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5371166503322932</v>
+        <v>0.5248037671545207</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.5806967965949821</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5304460817785098</v>
+        <v>0.482712279756226</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>0.538012208781362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4850311859247002</v>
+        <v>0.4363819972611042</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         <v>38596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5446814814814814</v>
+        <v>0.5435498842592593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4255094311697883</v>
+        <v>0.413024873375936</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         <v>38626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5310367038194002</v>
+        <v>0.5303734841867408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3920805539074572</v>
+        <v>0.4222113149276964</v>
       </c>
     </row>
     <row r="7">
@@ -532,10 +532,10 @@
         <v>38657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4843707175925926</v>
+        <v>0.4804905591168092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.405537342772742</v>
+        <v>0.4499936734707556</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>0.4445117510129344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4499118811744113</v>
+        <v>0.4741294140068752</v>
       </c>
     </row>
     <row r="9">
@@ -563,7 +563,7 @@
         <v>0.4643795922939069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4891695199567029</v>
+        <v>0.4848390174705579</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
         <v>0.3702224702380952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5010620613909252</v>
+        <v>0.490738520577286</v>
       </c>
     </row>
     <row r="11">
@@ -591,7 +591,7 @@
         <v>0.4590847894265233</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4948714923343767</v>
+        <v>0.5050449481609738</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
         <v>0.5258759259259259</v>
       </c>
       <c r="D12" t="n">
-        <v>0.49650750104147</v>
+        <v>0.5272367888484284</v>
       </c>
     </row>
     <row r="13">
@@ -619,7 +619,7 @@
         <v>0.5566135752688172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5173672682690432</v>
+        <v>0.5398816079983663</v>
       </c>
     </row>
     <row r="14">
@@ -633,7 +633,7 @@
         <v>0.5735559027777778</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5394992553521049</v>
+        <v>0.5247929620683303</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +647,7 @@
         <v>0.5802242383512545</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5328286867983215</v>
+        <v>0.4827014746700356</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +661,7 @@
         <v>0.4683316532258064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.487413790944512</v>
+        <v>0.4363711921749137</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +675,7 @@
         <v>0.4127074074074074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4278920361896001</v>
+        <v>0.4130140682897455</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +689,7 @@
         <v>0.400706497389746</v>
       </c>
       <c r="D18" t="n">
-        <v>0.394463158927269</v>
+        <v>0.4222005098415059</v>
       </c>
     </row>
     <row r="19">
@@ -703,7 +703,7 @@
         <v>0.442908428030303</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4079199477925537</v>
+        <v>0.4499828683845651</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +717,7 @@
         <v>0.3839181227598567</v>
       </c>
       <c r="D20" t="n">
-        <v>0.452294486194223</v>
+        <v>0.4741186089206847</v>
       </c>
     </row>
     <row r="21">
@@ -728,10 +728,10 @@
         <v>39083</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3466575940860215</v>
+        <v>0.3466690188172043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4915521249765146</v>
+        <v>0.4848282123843675</v>
       </c>
     </row>
     <row r="22">
@@ -745,7 +745,7 @@
         <v>0.3964437003968254</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5034446664107369</v>
+        <v>0.4907277154910955</v>
       </c>
     </row>
     <row r="23">
@@ -759,7 +759,7 @@
         <v>0.4301009184587813</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4972540973541885</v>
+        <v>0.5050341430747833</v>
       </c>
     </row>
     <row r="24">
@@ -773,7 +773,7 @@
         <v>0.4298315972222222</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4988901060612817</v>
+        <v>0.5272259837622379</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +787,7 @@
         <v>0.4019158826164874</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5197498732888549</v>
+        <v>0.5398708029121758</v>
       </c>
     </row>
     <row r="26">
@@ -801,7 +801,7 @@
         <v>0.4506622685185185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5418818603719165</v>
+        <v>0.5247821569821398</v>
       </c>
     </row>
     <row r="27">
@@ -815,7 +815,7 @@
         <v>0.4289525187003272</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5352112918181332</v>
+        <v>0.4826906695838451</v>
       </c>
     </row>
     <row r="28">
@@ -829,7 +829,7 @@
         <v>0.3970845184842818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4897963959643236</v>
+        <v>0.4363603870887232</v>
       </c>
     </row>
     <row r="29">
@@ -843,7 +843,7 @@
         <v>0.3775231580165004</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4302746412094117</v>
+        <v>0.413003263203555</v>
       </c>
     </row>
     <row r="30">
@@ -854,10 +854,10 @@
         <v>39356</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3540172902299365</v>
+        <v>0.3254040995419213</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3968457639470807</v>
+        <v>0.4221897047553154</v>
       </c>
     </row>
     <row r="31">
@@ -868,10 +868,10 @@
         <v>39387</v>
       </c>
       <c r="C31" t="n">
-        <v>0.413968327294686</v>
+        <v>0.4139768921095008</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4103025528123654</v>
+        <v>0.4499720632983746</v>
       </c>
     </row>
     <row r="32">
@@ -882,10 +882,10 @@
         <v>39417</v>
       </c>
       <c r="C32" t="n">
-        <v>0.594917177654893</v>
+        <v>0.4774676255658593</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4546770912140344</v>
+        <v>0.4741078038344942</v>
       </c>
     </row>
     <row r="33">
@@ -899,7 +899,7 @@
         <v>0.4745695883271707</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4939347299963263</v>
+        <v>0.484817407298177</v>
       </c>
     </row>
     <row r="34">
@@ -913,7 +913,7 @@
         <v>0.4619199950214287</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5058272714305486</v>
+        <v>0.4907169104049049</v>
       </c>
     </row>
     <row r="35">
@@ -927,7 +927,7 @@
         <v>0.4608858159965716</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4996367023740002</v>
+        <v>0.5050233379885929</v>
       </c>
     </row>
     <row r="36">
@@ -941,7 +941,7 @@
         <v>0.4737613425925926</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5012727110810935</v>
+        <v>0.5272151786760475</v>
       </c>
     </row>
     <row r="37">
@@ -955,7 +955,7 @@
         <v>0.4966217564917162</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5221324783086667</v>
+        <v>0.5398599978259854</v>
       </c>
     </row>
     <row r="38">
@@ -969,7 +969,7 @@
         <v>0.4954079861111111</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5442644653917283</v>
+        <v>0.5247713518959494</v>
       </c>
     </row>
     <row r="39">
@@ -983,7 +983,7 @@
         <v>0.4776818265934237</v>
       </c>
       <c r="D39" t="n">
-        <v>0.537593896837945</v>
+        <v>0.4826798644976548</v>
       </c>
     </row>
     <row r="40">
@@ -997,7 +997,7 @@
         <v>0.453502688172043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4921790009841355</v>
+        <v>0.4363495820025329</v>
       </c>
     </row>
     <row r="41">
@@ -1011,7 +1011,7 @@
         <v>0.458245079417362</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4326572462292237</v>
+        <v>0.4129924581173646</v>
       </c>
     </row>
     <row r="42">
@@ -1025,7 +1025,7 @@
         <v>0.4550480355169609</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3992283689668923</v>
+        <v>0.422178899669125</v>
       </c>
     </row>
     <row r="43">
@@ -1036,10 +1036,10 @@
         <v>39753</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4257897722697994</v>
+        <v>0.4258391704179476</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126851578321769</v>
+        <v>0.449961258212184</v>
       </c>
     </row>
     <row r="44">
@@ -1050,10 +1050,10 @@
         <v>39783</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4269566173658039</v>
+        <v>0.4207612157766332</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4570596962338463</v>
+        <v>0.4740969987483038</v>
       </c>
     </row>
     <row r="45">
@@ -1067,7 +1067,7 @@
         <v>0.4139601294324734</v>
       </c>
       <c r="D45" t="n">
-        <v>0.496317335016138</v>
+        <v>0.4848066022119865</v>
       </c>
     </row>
     <row r="46">
@@ -1081,7 +1081,7 @@
         <v>0.5094040178571428</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5082098764503603</v>
+        <v>0.4907061053187145</v>
       </c>
     </row>
     <row r="47">
@@ -1095,7 +1095,7 @@
         <v>0.5281393187830689</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5020193073938118</v>
+        <v>0.5050125329024024</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,9 @@
       <c r="B48" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>0.4981247863247863</v>
+      </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1116,10 +1118,10 @@
         <v>39934</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4981247863247863</v>
+        <v>0.4784986111111111</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5245150833284784</v>
+        <v>0.5272043735898568</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1132,10 @@
         <v>39965</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4784986111111111</v>
+        <v>0.5170281137992832</v>
       </c>
       <c r="D50" t="n">
-        <v>0.54664707041154</v>
+        <v>0.5398491927397949</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1146,10 @@
         <v>39995</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5170281137992832</v>
+        <v>0.4142953629032258</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5399765018577568</v>
+        <v>0.5247605468097589</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1160,10 @@
         <v>40026</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4142953629032258</v>
+        <v>0.3937501308373591</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4945616060039469</v>
+        <v>0.4826690594114644</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1174,10 @@
         <v>40057</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3937501308373591</v>
+        <v>0.3683823924731183</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4350398512490354</v>
+        <v>0.4363387769163422</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1188,10 @@
         <v>40087</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3683823924731183</v>
+        <v>0.4154303240740741</v>
       </c>
       <c r="D54" t="n">
-        <v>0.401610973986704</v>
+        <v>0.4129816530311741</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1202,10 @@
         <v>40118</v>
       </c>
       <c r="C55" t="n">
-        <v>0.42010916005291</v>
+        <v>0.520721438172043</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4150677628519888</v>
+        <v>0.4221680945829345</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1216,10 @@
         <v>40148</v>
       </c>
       <c r="C56" t="n">
-        <v>0.520721438172043</v>
+        <v>0.6350891217320261</v>
       </c>
       <c r="D56" t="n">
-        <v>0.459442301253658</v>
+        <v>0.4499504531259937</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1230,10 @@
         <v>40179</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6396992783224401</v>
+        <v>0.6617108311467977</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4986999400359499</v>
+        <v>0.4740861936621133</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1244,10 @@
         <v>40210</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6659090687543133</v>
+        <v>0.6751820273348753</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5105924814701721</v>
+        <v>0.4847957971257961</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1258,10 @@
         <v>40238</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6820080645161291</v>
+        <v>0.6224637731481482</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5044019124136236</v>
+        <v>0.490695300232524</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1272,10 @@
         <v>40269</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6224637731481482</v>
+        <v>0.5769614695340503</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5060379211207168</v>
+        <v>0.5050017278162118</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1286,10 @@
         <v>40299</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5769614695340503</v>
+        <v>0.6454351222826087</v>
       </c>
       <c r="D61" t="n">
-        <v>0.52689768834829</v>
+        <v>0.5271935685036665</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1300,10 @@
         <v>40330</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6557208303140097</v>
+        <v>0.7037275658369407</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5490296754313516</v>
+        <v>0.5398383876536044</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1314,10 @@
         <v>40360</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7123144041218638</v>
+        <v>0.6135935172198848</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5423591068775685</v>
+        <v>0.5247497417235687</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1328,10 @@
         <v>40391</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6135935172198848</v>
+        <v>0.4684766203703704</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4969442110237591</v>
+        <v>0.4826582543252739</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1342,10 @@
         <v>40422</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4684766203703704</v>
+        <v>0.4809484255512335</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4374224562688467</v>
+        <v>0.436327971830152</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1356,10 @@
         <v>40452</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5222827193114272</v>
+        <v>0.5237601097115782</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4039935790065158</v>
+        <v>0.4129708479449836</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1370,10 @@
         <v>40483</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5725550786331222</v>
+        <v>0.6300763560190072</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4174503678718005</v>
+        <v>0.4221572894967439</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1384,10 @@
         <v>40513</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6874593017747602</v>
+        <v>0.6461310056891578</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4618249062734701</v>
+        <v>0.4499396480398032</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1398,10 @@
         <v>40544</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7517031421078143</v>
+        <v>0.6122417508417508</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5010825450557614</v>
+        <v>0.474075388575923</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1412,10 @@
         <v>40575</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7202241102938211</v>
+        <v>0.5056152553763441</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5129750864899838</v>
+        <v>0.4847849920396056</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1426,10 @@
         <v>40603</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5056152553763441</v>
+        <v>0.4990695601851852</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5067845174334353</v>
+        <v>0.4906844951463336</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1440,10 @@
         <v>40634</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4990695601851852</v>
+        <v>0.5053887768817205</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5084205261405286</v>
+        <v>0.5049909227300213</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1454,10 @@
         <v>40664</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5053887768817205</v>
+        <v>0.540854347826087</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5292802933681019</v>
+        <v>0.5271827634174761</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1468,10 @@
         <v>40695</v>
       </c>
       <c r="C74" t="n">
-        <v>0.540854347826087</v>
+        <v>0.5258866487455197</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5514122804511634</v>
+        <v>0.539827582567414</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1482,10 @@
         <v>40725</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5258866487455197</v>
+        <v>0.4826020239208353</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5447417118973804</v>
+        <v>0.524738936637378</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1496,10 @@
         <v>40756</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4826020239208353</v>
+        <v>0.3915595108695652</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4993268160435708</v>
+        <v>0.4826474492390838</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1510,10 @@
         <v>40787</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3915595108695652</v>
+        <v>0.4346954415043037</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4398050612886585</v>
+        <v>0.4363171667439615</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1524,10 @@
         <v>40817</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4354621778797795</v>
+        <v>0.3750141314412238</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4063761840263276</v>
+        <v>0.4129600428587931</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1538,10 @@
         <v>40848</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3750141314412238</v>
+        <v>0.2888793565886499</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4198329728916122</v>
+        <v>0.4221464844105534</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1552,10 @@
         <v>40878</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2780563396057348</v>
+        <v>0.3701387056044314</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4642075112932811</v>
+        <v>0.4499288429536127</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1566,10 @@
         <v>40909</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3701387056044314</v>
+        <v>0.3399157348409129</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5034651500755731</v>
+        <v>0.4740645834897322</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1580,10 @@
         <v>40940</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3376140627602865</v>
+        <v>0.3136196820944367</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5153576915097955</v>
+        <v>0.4847741869534152</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1594,10 @@
         <v>40969</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3133602978416706</v>
+        <v>0.3868256944444444</v>
       </c>
       <c r="D83" t="n">
-        <v>0.509167122453247</v>
+        <v>0.4906736900601432</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1608,10 @@
         <v>41000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3868256944444444</v>
+        <v>0.5034750224014337</v>
       </c>
       <c r="D84" t="n">
-        <v>0.51080313116034</v>
+        <v>0.5049801176438308</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1622,10 @@
         <v>41030</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5034750224014337</v>
+        <v>0.531440162037037</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5316628983879136</v>
+        <v>0.5271719583312853</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1636,10 @@
         <v>41061</v>
       </c>
       <c r="C86" t="n">
-        <v>0.531440162037037</v>
+        <v>0.492125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5537948854709751</v>
+        <v>0.5398167774812235</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1650,10 @@
         <v>41091</v>
       </c>
       <c r="C87" t="n">
-        <v>0.492125</v>
+        <v>0.4772291666666667</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5471243169171918</v>
+        <v>0.5247281315511875</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1664,10 @@
         <v>41122</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4772291666666667</v>
+        <v>0.3142623048941799</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5017094210633825</v>
+        <v>0.4826366441528926</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1678,10 @@
         <v>41153</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3139159722222222</v>
+        <v>0.329733690782297</v>
       </c>
       <c r="D89" t="n">
-        <v>0.442187666308471</v>
+        <v>0.4363063616577711</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1692,10 @@
         <v>41183</v>
       </c>
       <c r="C90" t="n">
-        <v>0.329620855734767</v>
+        <v>0.3697474537037037</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4087587890461393</v>
+        <v>0.4129492377726027</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1706,10 @@
         <v>41214</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3697474537037037</v>
+        <v>0.4330180331541219</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4222155779114239</v>
+        <v>0.4221356793243629</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1720,10 @@
         <v>41244</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4330180331541219</v>
+        <v>0.4574149865591398</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4665901163130934</v>
+        <v>0.4499180378674222</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1734,10 @@
         <v>41275</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4574149865591398</v>
+        <v>0.5498237847222222</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5058477550953848</v>
+        <v>0.474053778403542</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1748,10 @@
         <v>41306</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5498237847222222</v>
+        <v>0.560818538647343</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5177402965296072</v>
+        <v>0.4847633818672247</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1762,10 @@
         <v>41334</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5610517473118281</v>
+        <v>0.6479130621693122</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5115497274730587</v>
+        <v>0.4906628849739526</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1776,10 @@
         <v>41365</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6487871527777778</v>
+        <v>0.6114812948028674</v>
       </c>
       <c r="D96" t="n">
-        <v>0.513185736180152</v>
+        <v>0.5049693125576403</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1790,10 @@
         <v>41395</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6114812948028674</v>
+        <v>0.6059657738095238</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5340455034077253</v>
+        <v>0.527161153245095</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1804,10 @@
         <v>41426</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6059657738095238</v>
+        <v>0.6074169315044859</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5561774904907868</v>
+        <v>0.539805972395033</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1818,10 @@
         <v>41456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6153513187626617</v>
+        <v>0.507986335125448</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5495069219370038</v>
+        <v>0.524717326464997</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1832,10 @@
         <v>41487</v>
       </c>
       <c r="C100" t="n">
-        <v>0.507986335125448</v>
+        <v>0.4140235335186844</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5040920260831941</v>
+        <v>0.4826258390667029</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1846,10 @@
         <v>41518</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4140235335186844</v>
+        <v>0.4387882752022539</v>
       </c>
       <c r="D101" t="n">
-        <v>0.444570271328282</v>
+        <v>0.4362955565715806</v>
       </c>
     </row>
     <row r="102">
@@ -1858,10 +1860,10 @@
         <v>41548</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4387882752022539</v>
+        <v>0.4079516097458121</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4111413940659508</v>
+        <v>0.4129384326864122</v>
       </c>
     </row>
     <row r="103">
@@ -1872,10 +1874,10 @@
         <v>41579</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4079516097458121</v>
+        <v>0.3961620743727599</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4245981829312356</v>
+        <v>0.4221248742381727</v>
       </c>
     </row>
     <row r="104">
@@ -1886,10 +1888,10 @@
         <v>41609</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3961620743727599</v>
+        <v>0.3977715053763441</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4689727213329044</v>
+        <v>0.4499072327812317</v>
       </c>
     </row>
     <row r="105">
@@ -1900,10 +1902,10 @@
         <v>41640</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3977715053763441</v>
+        <v>0.4404456845238096</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5082303601151964</v>
+        <v>0.4740429733173512</v>
       </c>
     </row>
     <row r="106">
@@ -1914,10 +1916,10 @@
         <v>41671</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4404456845238096</v>
+        <v>0.4571662186379928</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5201229015494189</v>
+        <v>0.4847525767810342</v>
       </c>
     </row>
     <row r="107">
@@ -1928,10 +1930,10 @@
         <v>41699</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4571662186379928</v>
+        <v>0.4211550925925926</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5139323324928704</v>
+        <v>0.4906520798877622</v>
       </c>
     </row>
     <row r="108">
@@ -1942,10 +1944,10 @@
         <v>41730</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4211550925925926</v>
+        <v>0.4879982078853047</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5155683411999636</v>
+        <v>0.5049585074714501</v>
       </c>
     </row>
     <row r="109">
@@ -1956,10 +1958,10 @@
         <v>41760</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4879982078853047</v>
+        <v>0.5750810889694041</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5364281084275366</v>
+        <v>0.5271503481589046</v>
       </c>
     </row>
     <row r="110">
@@ -1970,10 +1972,10 @@
         <v>41791</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5750810889694041</v>
+        <v>0.5548233646953405</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5585600955105985</v>
+        <v>0.5397951673088426</v>
       </c>
     </row>
     <row r="111">
@@ -1984,10 +1986,10 @@
         <v>41821</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5548233646953405</v>
+        <v>0.5300685483870967</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5518895269568155</v>
+        <v>0.5247065213788066</v>
       </c>
     </row>
     <row r="112">
@@ -1998,10 +2000,10 @@
         <v>41852</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5300685483870967</v>
+        <v>0.4543092743558776</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5064746311030052</v>
+        <v>0.4826150339805124</v>
       </c>
     </row>
     <row r="113">
@@ -2012,10 +2014,10 @@
         <v>41883</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4543092743558776</v>
+        <v>0.4076694668458781</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4469528763480937</v>
+        <v>0.4362847514853896</v>
       </c>
     </row>
     <row r="114">
@@ -2026,10 +2028,10 @@
         <v>41913</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4076592741935484</v>
+        <v>0.4300915509259259</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4135239990857627</v>
+        <v>0.4129276276002217</v>
       </c>
     </row>
     <row r="115">
@@ -2040,10 +2042,10 @@
         <v>41944</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4300915509259259</v>
+        <v>0.4337111335125448</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4269807879510473</v>
+        <v>0.422114069151982</v>
       </c>
     </row>
     <row r="116">
@@ -2054,10 +2056,10 @@
         <v>41974</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4337111335125448</v>
+        <v>0.4367959314613527</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4713553263527161</v>
+        <v>0.4498964276950412</v>
       </c>
     </row>
     <row r="117">
@@ -2068,10 +2070,10 @@
         <v>42005</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6685165457545805</v>
+        <v>0.4979237397119342</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5106129651350085</v>
+        <v>0.4740321682311608</v>
       </c>
     </row>
     <row r="118">
@@ -2082,11 +2084,9 @@
         <v>42036</v>
       </c>
       <c r="C118" t="n">
-        <v>0.800961571263881</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.5225055065692306</v>
-      </c>
+        <v>0.5194718862007168</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2096,11 +2096,9 @@
         <v>42064</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8009123966700668</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.5163149375126822</v>
-      </c>
+        <v>0.5696847222222222</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2110,10 +2108,10 @@
         <v>42095</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3883770828036274</v>
+        <v>0.5188485663082437</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5179509462197754</v>
+        <v>0.4847417716948438</v>
       </c>
     </row>
     <row r="121">
@@ -2124,10 +2122,10 @@
         <v>42125</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5194718862007168</v>
+        <v>0.483118167562724</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5388107134473483</v>
+        <v>0.4906412748015717</v>
       </c>
     </row>
     <row r="122">
@@ -2138,10 +2136,10 @@
         <v>42156</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5696847222222222</v>
+        <v>0.3928318287037037</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5609427005304101</v>
+        <v>0.5049477023852594</v>
       </c>
     </row>
     <row r="123">
@@ -2152,10 +2150,10 @@
         <v>42186</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5188485663082437</v>
+        <v>0.4034293234767025</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5542721319766268</v>
+        <v>0.5271395430727142</v>
       </c>
     </row>
     <row r="124">
@@ -2166,10 +2164,10 @@
         <v>42217</v>
       </c>
       <c r="C124" t="n">
-        <v>0.483118167562724</v>
+        <v>0.3535119047619047</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5088572361228177</v>
+        <v>0.5397843622226521</v>
       </c>
     </row>
     <row r="125">
@@ -2180,10 +2178,10 @@
         <v>42248</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3928318287037037</v>
+        <v>0.3392314314583333</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4493354813679062</v>
+        <v>0.5246957162926166</v>
       </c>
     </row>
     <row r="126">
@@ -2194,10 +2192,10 @@
         <v>42278</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4034293234767025</v>
+        <v>0.4420176220990144</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4159066041055745</v>
+        <v>0.4826042288943214</v>
       </c>
     </row>
     <row r="127">
@@ -2208,10 +2206,10 @@
         <v>42309</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3535119047619047</v>
+        <v>0.4800436748443487</v>
       </c>
       <c r="D127" t="n">
-        <v>0.429363392970859</v>
+        <v>0.4362739463991997</v>
       </c>
     </row>
     <row r="128">
@@ -2222,10 +2220,10 @@
         <v>42339</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3392314314583333</v>
+        <v>0.5261047946908601</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4737379313725285</v>
+        <v>0.4129168225140313</v>
       </c>
     </row>
     <row r="129">
@@ -2236,10 +2234,10 @@
         <v>42370</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4420176220990144</v>
+        <v>0.5321129118981481</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5129955701548202</v>
+        <v>0.4221032640657915</v>
       </c>
     </row>
     <row r="130">
@@ -2250,10 +2248,10 @@
         <v>42401</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4800436748443487</v>
+        <v>0.5858749315300179</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5248881115890424</v>
+        <v>0.4498856226088508</v>
       </c>
     </row>
     <row r="131">
@@ -2264,10 +2262,10 @@
         <v>42430</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5261047946908601</v>
+        <v>0.6371033906712963</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5186975425324939</v>
+        <v>0.4740213631449706</v>
       </c>
     </row>
     <row r="132">
@@ -2278,10 +2276,10 @@
         <v>42461</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5321129118981481</v>
+        <v>0.6160833840109767</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5203335512395871</v>
+        <v>0.4847309666086533</v>
       </c>
     </row>
     <row r="133">
@@ -2292,10 +2290,10 @@
         <v>42491</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5858749315300179</v>
+        <v>0.5467299499775986</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5411933184671603</v>
+        <v>0.4906304697153811</v>
       </c>
     </row>
     <row r="134">
@@ -2306,10 +2304,10 @@
         <v>42522</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6373534023148149</v>
+        <v>0.4528372383101852</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5633253055502221</v>
+        <v>0.5049368972990689</v>
       </c>
     </row>
     <row r="135">
@@ -2320,10 +2318,10 @@
         <v>42552</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6175883399305556</v>
+        <v>0.3898275022424769</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5566547369964391</v>
+        <v>0.5271287379865236</v>
       </c>
     </row>
     <row r="136">
@@ -2333,11 +2331,9 @@
       <c r="B136" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="C136" t="n">
-        <v>0.5467299499775986</v>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>0.5112398411426294</v>
+        <v>0.5397735571364616</v>
       </c>
     </row>
     <row r="137">
@@ -2347,11 +2343,9 @@
       <c r="B137" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="C137" t="n">
-        <v>0.4528372383101852</v>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>0.4517180863877172</v>
+        <v>0.5246849112064252</v>
       </c>
     </row>
     <row r="138">
@@ -2361,11 +2355,9 @@
       <c r="B138" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="C138" t="n">
-        <v>0.3896380056857638</v>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>0.418289209125386</v>
+        <v>0.4825934238081316</v>
       </c>
     </row>
   </sheetData>
